--- a/driver_amount_allocator/派车单明细_文件名不可更改.xlsx
+++ b/driver_amount_allocator/派车单明细_文件名不可更改.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiangyanyang/PycharmProjects/Debug2/driver_amount_allocator/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiangyanyang/wander_personal/driver_amount_allocator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{210E1ED2-C40E-5844-8C04-00C73910A762}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{249473C0-27ED-A041-A5E6-44DA1437CADC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="180" yWindow="460" windowWidth="25180" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="248">
   <si>
     <t>状态</t>
   </si>
@@ -777,6 +777,10 @@
   </si>
   <si>
     <t>肠炎宁胶囊48粒 0.3g*12粒*3板 B-20版（葫芦爸）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>洪绵博2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1346,8 +1350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="V15" sqref="V15:AA16"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="99" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1630,7 +1634,7 @@
         <v>28</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>29</v>
+        <v>247</v>
       </c>
       <c r="K4" s="2">
         <v>0</v>
